--- a/output/1Y_P29_KFSDIV.xlsx
+++ b/output/1Y_P29_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>14.5668</v>
       </c>
       <c r="C2" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D2" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.962</v>
       </c>
       <c r="C3" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D3" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E3" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="F3" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="H3" s="1">
-        <v>9584.809300000001</v>
+        <v>9546.5196</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9584.809300000001</v>
+        <v>9546.5196</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0415</v>
+        <v>-0.0453</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.2659</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E4" s="1">
-        <v>1402.7223</v>
+        <v>1399.9155</v>
       </c>
       <c r="F4" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="H4" s="1">
-        <v>17205.6519</v>
+        <v>17136.9255</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17205.6519</v>
+        <v>17136.9255</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.258</v>
+        <v>14.2866</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.1215</v>
+        <v>-0.1233</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.4103</v>
       </c>
       <c r="C5" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D5" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E5" s="1">
-        <v>2217.9907</v>
+        <v>2213.552</v>
       </c>
       <c r="F5" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="H5" s="1">
-        <v>27525.9298</v>
+        <v>27415.9488</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27525.9298</v>
+        <v>27415.9488</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5258</v>
+        <v>13.5529</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0118</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>12.3976</v>
       </c>
       <c r="C6" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D6" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E6" s="1">
-        <v>3023.773</v>
+        <v>3017.7209</v>
       </c>
       <c r="F6" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="H6" s="1">
-        <v>37487.5279</v>
+        <v>37337.6566</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37487.5279</v>
+        <v>37337.6566</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2285</v>
+        <v>13.255</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>998.0958000000001</v>
+        <v>996.0984</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9001.904200000001</v>
+        <v>-9003.901599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.001</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.9013</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E7" s="1">
-        <v>3830.3807</v>
+        <v>3822.7183</v>
       </c>
       <c r="F7" s="1">
-        <v>786.1616</v>
+        <v>784.5705</v>
       </c>
       <c r="H7" s="1">
-        <v>49416.8906</v>
+        <v>49219.4092</v>
       </c>
       <c r="I7" s="1">
-        <v>998.0958000000001</v>
+        <v>996.0984</v>
       </c>
       <c r="J7" s="1">
-        <v>50414.9864</v>
+        <v>50215.5076</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0535</v>
+        <v>13.0797</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10142.5851</v>
+        <v>-10142.2998</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0616</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.3527</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E8" s="1">
-        <v>4616.5423</v>
+        <v>4607.2888</v>
       </c>
       <c r="F8" s="1">
-        <v>759.5906</v>
+        <v>758.0477</v>
       </c>
       <c r="H8" s="1">
-        <v>61643.3043</v>
+        <v>61396.7303</v>
       </c>
       <c r="I8" s="1">
-        <v>855.5107</v>
+        <v>853.7986</v>
       </c>
       <c r="J8" s="1">
-        <v>62498.815</v>
+        <v>62250.5289</v>
       </c>
       <c r="K8" s="1">
-        <v>60142.5851</v>
+        <v>60142.2998</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0276</v>
+        <v>13.0537</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10142.5851</v>
+        <v>-10142.2998</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0345</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>13.8804</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E9" s="1">
-        <v>5376.1329</v>
+        <v>5365.3365</v>
       </c>
       <c r="F9" s="1">
-        <v>730.7127</v>
+        <v>729.2317</v>
       </c>
       <c r="H9" s="1">
-        <v>74622.87480000001</v>
+        <v>74323.8607</v>
       </c>
       <c r="I9" s="1">
-        <v>712.9256</v>
+        <v>711.4989</v>
       </c>
       <c r="J9" s="1">
-        <v>75335.8003</v>
+        <v>75035.3596</v>
       </c>
       <c r="K9" s="1">
-        <v>70285.17019999999</v>
+        <v>70284.5995</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0736</v>
+        <v>13.0998</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2077.444</v>
+        <v>2073.28</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8065.1411</v>
+        <v>-8069.0198</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0391</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>14.6268</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E10" s="1">
-        <v>6106.8456</v>
+        <v>6094.5682</v>
       </c>
       <c r="F10" s="1">
-        <v>728.9322</v>
+        <v>727.3845</v>
       </c>
       <c r="H10" s="1">
-        <v>89323.6094</v>
+        <v>88966.06849999999</v>
       </c>
       <c r="I10" s="1">
-        <v>2647.7845</v>
+        <v>2642.479</v>
       </c>
       <c r="J10" s="1">
-        <v>91971.3939</v>
+        <v>91608.5475</v>
       </c>
       <c r="K10" s="1">
-        <v>80427.7553</v>
+        <v>80426.8993</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1701</v>
+        <v>13.1965</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10661.9461</v>
+        <v>-10660.6198</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07779999999999999</v>
+        <v>0.07729999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>15.3636</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E11" s="1">
-        <v>6835.7779</v>
+        <v>6821.9527</v>
       </c>
       <c r="F11" s="1">
-        <v>693.9745</v>
+        <v>692.4999</v>
       </c>
       <c r="H11" s="1">
-        <v>105022.1567</v>
+        <v>104600.318</v>
       </c>
       <c r="I11" s="1">
-        <v>1985.8384</v>
+        <v>1981.8593</v>
       </c>
       <c r="J11" s="1">
-        <v>107007.9951</v>
+        <v>106582.1773</v>
       </c>
       <c r="K11" s="1">
-        <v>91089.7015</v>
+        <v>91087.5191</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3254</v>
+        <v>13.3521</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10661.9461</v>
+        <v>-10660.6198</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0494</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>13.8711</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E12" s="1">
-        <v>7529.7523</v>
+        <v>7514.4525</v>
       </c>
       <c r="F12" s="1">
-        <v>768.6446</v>
+        <v>767.0118</v>
       </c>
       <c r="H12" s="1">
-        <v>104445.9475</v>
+        <v>104025.572</v>
       </c>
       <c r="I12" s="1">
-        <v>1323.8922</v>
+        <v>1321.2395</v>
       </c>
       <c r="J12" s="1">
-        <v>105769.8397</v>
+        <v>105346.8116</v>
       </c>
       <c r="K12" s="1">
-        <v>101751.6476</v>
+        <v>101748.1388</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5133</v>
+        <v>13.5403</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3076.1</v>
+        <v>3069.8787</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7585.8461</v>
+        <v>-7590.7411</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.096</v>
+        <v>-0.0964</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>14.1252</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E13" s="1">
-        <v>8298.3969</v>
+        <v>8281.4643</v>
       </c>
       <c r="F13" s="1">
-        <v>972.5913</v>
+        <v>970.1133</v>
       </c>
       <c r="H13" s="1">
-        <v>117216.5163</v>
+        <v>116743.802</v>
       </c>
       <c r="I13" s="1">
-        <v>3738.0462</v>
+        <v>3730.4985</v>
       </c>
       <c r="J13" s="1">
-        <v>120954.5624</v>
+        <v>120474.3004</v>
       </c>
       <c r="K13" s="1">
-        <v>112413.5937</v>
+        <v>112408.7586</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5464</v>
+        <v>13.5735</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13738.0462</v>
+        <v>-13730.4985</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0448</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>14.1934</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E14" s="1">
-        <v>9270.9882</v>
+        <v>9251.577600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9270.9882</v>
+        <v>-9251.577600000001</v>
       </c>
       <c r="H14" s="1">
-        <v>131586.8438</v>
+        <v>131048.5963</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>131586.8438</v>
+        <v>131048.5963</v>
       </c>
       <c r="K14" s="1">
-        <v>126151.6399</v>
+        <v>126139.2571</v>
       </c>
       <c r="L14" s="1">
-        <v>13.6071</v>
+        <v>13.6344</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131586.8438</v>
+        <v>131048.5963</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0048</v>
+        <v>0.0044</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1384,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>14.5668</v>
       </c>
       <c r="C2" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D2" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.962</v>
       </c>
       <c r="C3" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D3" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E3" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="F3" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9584.809300000001</v>
+        <v>9546.5196</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9584.809300000001</v>
+        <v>9546.5196</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0415</v>
+        <v>-0.0453</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.2659</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E4" s="1">
-        <v>1402.7223</v>
+        <v>1399.9155</v>
       </c>
       <c r="F4" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>17205.6519</v>
+        <v>17136.9255</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17205.6519</v>
+        <v>17136.9255</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.258</v>
+        <v>14.2866</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.1215</v>
+        <v>-0.1233</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.4103</v>
       </c>
       <c r="C5" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D5" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E5" s="1">
-        <v>2217.9907</v>
+        <v>2213.552</v>
       </c>
       <c r="F5" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>27525.9298</v>
+        <v>27415.9488</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27525.9298</v>
+        <v>27415.9488</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5258</v>
+        <v>13.5529</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0118</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>12.3976</v>
       </c>
       <c r="C6" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D6" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E6" s="1">
-        <v>3023.773</v>
+        <v>3017.7209</v>
       </c>
       <c r="F6" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37487.5279</v>
+        <v>37337.6566</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37487.5279</v>
+        <v>37337.6566</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2285</v>
+        <v>13.255</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>998.0958000000001</v>
+        <v>996.0984</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9001.904200000001</v>
+        <v>-9003.901599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.001</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.9013</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E7" s="1">
-        <v>3830.3807</v>
+        <v>3822.7183</v>
       </c>
       <c r="F7" s="1">
-        <v>820.3134</v>
+        <v>837.2949</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49416.8906</v>
+        <v>49219.4092</v>
       </c>
       <c r="I7" s="1">
-        <v>998.0958000000001</v>
+        <v>996.0984</v>
       </c>
       <c r="J7" s="1">
-        <v>50414.9864</v>
+        <v>50215.5076</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0535</v>
+        <v>13.0797</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10583.1914</v>
+        <v>-10823.879</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0616</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.3527</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E8" s="1">
-        <v>4650.6941</v>
+        <v>4660.0132</v>
       </c>
       <c r="F8" s="1">
-        <v>591.6913</v>
+        <v>592.8759</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>62099.3233</v>
+        <v>62099.3359</v>
       </c>
       <c r="I8" s="1">
-        <v>414.9044</v>
+        <v>172.2195</v>
       </c>
       <c r="J8" s="1">
-        <v>62514.2277</v>
+        <v>62271.5554</v>
       </c>
       <c r="K8" s="1">
-        <v>60583.1914</v>
+        <v>60823.879</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0267</v>
+        <v>13.0523</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7900.6767</v>
+        <v>-7932.3829</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0347</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>13.8804</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E9" s="1">
-        <v>5242.3854</v>
+        <v>5252.8891</v>
       </c>
       <c r="F9" s="1">
-        <v>521.1372</v>
+        <v>522.2001</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>72766.4068</v>
+        <v>72766.17140000001</v>
       </c>
       <c r="I9" s="1">
-        <v>2514.2277</v>
+        <v>2239.8365</v>
       </c>
       <c r="J9" s="1">
-        <v>75280.6345</v>
+        <v>75006.0079</v>
       </c>
       <c r="K9" s="1">
-        <v>68483.86810000001</v>
+        <v>68756.2619</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0635</v>
+        <v>13.0892</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2092.8124</v>
+        <v>2097.0059</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5140.7809</v>
+        <v>-5165.857</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0381</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>14.6268</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E10" s="1">
-        <v>5763.5227</v>
+        <v>5775.0892</v>
       </c>
       <c r="F10" s="1">
-        <v>389.5662</v>
+        <v>390.3079</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>84301.8933</v>
+        <v>84302.4414</v>
       </c>
       <c r="I10" s="1">
-        <v>7373.4469</v>
+        <v>7073.9796</v>
       </c>
       <c r="J10" s="1">
-        <v>91675.34020000001</v>
+        <v>91376.421</v>
       </c>
       <c r="K10" s="1">
-        <v>75717.4613</v>
+        <v>76019.12480000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1374</v>
+        <v>13.1633</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5698.1067</v>
+        <v>-5720.3916</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.075</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>15.3636</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E11" s="1">
-        <v>6153.0889</v>
+        <v>6165.3971</v>
       </c>
       <c r="F11" s="1">
-        <v>355.8023</v>
+        <v>356.5264</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>94533.5959</v>
+        <v>94533.41650000001</v>
       </c>
       <c r="I11" s="1">
-        <v>11675.3402</v>
+        <v>11353.588</v>
       </c>
       <c r="J11" s="1">
-        <v>106208.9361</v>
+        <v>105887.0044</v>
       </c>
       <c r="K11" s="1">
-        <v>81415.568</v>
+        <v>81739.51639999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2317</v>
+        <v>13.2578</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5466.4041</v>
+        <v>-5488.5099</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0446</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>13.8711</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E12" s="1">
-        <v>6508.8911</v>
+        <v>6521.9234</v>
       </c>
       <c r="F12" s="1">
-        <v>1421.2658</v>
+        <v>1424.1014</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>90285.48</v>
+        <v>90285.595</v>
       </c>
       <c r="I12" s="1">
-        <v>16208.9361</v>
+        <v>15865.078</v>
       </c>
       <c r="J12" s="1">
-        <v>106494.416</v>
+        <v>106150.6731</v>
       </c>
       <c r="K12" s="1">
-        <v>86881.9721</v>
+        <v>87228.0263</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3482</v>
+        <v>13.3746</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2768.89</v>
+        <v>2774.4287</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-16945.6301</v>
+        <v>-17019.0139</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.08359999999999999</v>
+        <v>-0.08400000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>14.1252</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E13" s="1">
-        <v>7930.1569</v>
+        <v>7946.0248</v>
       </c>
       <c r="F13" s="1">
-        <v>565.298</v>
+        <v>566.4246000000001</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>112015.0529</v>
+        <v>112015.1119</v>
       </c>
       <c r="I13" s="1">
-        <v>9263.306</v>
+        <v>8846.0641</v>
       </c>
       <c r="J13" s="1">
-        <v>121278.3589</v>
+        <v>120861.176</v>
       </c>
       <c r="K13" s="1">
-        <v>106596.4921</v>
+        <v>107021.4689</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4419</v>
+        <v>13.4686</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7984.9471</v>
+        <v>-8016.8911</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0411</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>14.1934</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E14" s="1">
-        <v>8495.454900000001</v>
+        <v>8512.449500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8495.454900000001</v>
+        <v>-8512.449500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120579.39</v>
+        <v>120578.8466</v>
       </c>
       <c r="I14" s="1">
-        <v>11278.3589</v>
+        <v>10829.173</v>
       </c>
       <c r="J14" s="1">
-        <v>131857.7489</v>
+        <v>131408.0196</v>
       </c>
       <c r="K14" s="1">
-        <v>114581.4393</v>
+        <v>115038.36</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4874</v>
+        <v>13.5141</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120579.39</v>
+        <v>120578.8466</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0044</v>
+        <v>0.0042</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>14.5668</v>
       </c>
       <c r="C2" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D2" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.962</v>
       </c>
       <c r="C3" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D3" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E3" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="F3" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9584.809300000001</v>
+        <v>9546.5196</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9584.809300000001</v>
+        <v>9546.5196</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0415</v>
+        <v>-0.0453</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.2659</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E4" s="1">
-        <v>1402.7223</v>
+        <v>1399.9155</v>
       </c>
       <c r="F4" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>17205.6519</v>
+        <v>17136.9255</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17205.6519</v>
+        <v>17136.9255</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.258</v>
+        <v>14.2866</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.1215</v>
+        <v>-0.1233</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.4103</v>
       </c>
       <c r="C5" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D5" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E5" s="1">
-        <v>2217.9907</v>
+        <v>2213.552</v>
       </c>
       <c r="F5" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>27525.9298</v>
+        <v>27415.9488</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27525.9298</v>
+        <v>27415.9488</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5258</v>
+        <v>13.5529</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0118</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>12.3976</v>
       </c>
       <c r="C6" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D6" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E6" s="1">
-        <v>3023.773</v>
+        <v>3017.7209</v>
       </c>
       <c r="F6" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37487.5279</v>
+        <v>37337.6566</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37487.5279</v>
+        <v>37337.6566</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2285</v>
+        <v>13.255</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>998.0958000000001</v>
+        <v>996.0984</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9001.904200000001</v>
+        <v>-9003.901599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.001</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.9013</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E7" s="1">
-        <v>3830.3807</v>
+        <v>3822.7183</v>
       </c>
       <c r="F7" s="1">
-        <v>852.4731</v>
+        <v>850.6172</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49416.8906</v>
+        <v>49219.4092</v>
       </c>
       <c r="I7" s="1">
-        <v>998.0958000000001</v>
+        <v>996.0984</v>
       </c>
       <c r="J7" s="1">
-        <v>50414.9864</v>
+        <v>50215.5076</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0535</v>
+        <v>13.0797</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10998.0958</v>
+        <v>-10996.0984</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0616</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.3527</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E8" s="1">
-        <v>4682.8538</v>
+        <v>4673.3355</v>
       </c>
       <c r="F8" s="1">
-        <v>638.826</v>
+        <v>659.0069</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>62528.7414</v>
+        <v>62276.8683</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>62528.7414</v>
+        <v>62276.8683</v>
       </c>
       <c r="K8" s="1">
-        <v>60998.0958</v>
+        <v>60996.0984</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0258</v>
+        <v>13.0519</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8530.0525</v>
+        <v>-8817.1824</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.035</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>13.8804</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E9" s="1">
-        <v>5321.6798</v>
+        <v>5332.3423</v>
       </c>
       <c r="F9" s="1">
-        <v>543.7195</v>
+        <v>544.8279</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73867.04429999999</v>
+        <v>73866.8054</v>
       </c>
       <c r="I9" s="1">
-        <v>1469.9475</v>
+        <v>1182.8176</v>
       </c>
       <c r="J9" s="1">
-        <v>75336.9918</v>
+        <v>75049.6229</v>
       </c>
       <c r="K9" s="1">
-        <v>69528.1483</v>
+        <v>69813.2809</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0651</v>
+        <v>13.0924</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2107.2842</v>
+        <v>2103.001</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5439.7593</v>
+        <v>-5474.574</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0387</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>14.6268</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E10" s="1">
-        <v>5865.3993</v>
+        <v>5877.1702</v>
       </c>
       <c r="F10" s="1">
-        <v>412.1979</v>
+        <v>412.9842</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>85792.02190000001</v>
+        <v>85792.5796</v>
       </c>
       <c r="I10" s="1">
-        <v>6030.1882</v>
+        <v>5708.2436</v>
       </c>
       <c r="J10" s="1">
-        <v>91822.21000000001</v>
+        <v>91500.8232</v>
       </c>
       <c r="K10" s="1">
-        <v>77075.1918</v>
+        <v>77390.8558</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1407</v>
+        <v>13.168</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6029.1364</v>
+        <v>-6052.7382</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.076</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>15.3636</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E11" s="1">
-        <v>6277.5972</v>
+        <v>6290.1544</v>
       </c>
       <c r="F11" s="1">
-        <v>379.7139</v>
+        <v>380.4861</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>96446.49189999999</v>
+        <v>96446.3088</v>
       </c>
       <c r="I11" s="1">
-        <v>10001.0517</v>
+        <v>9655.5054</v>
       </c>
       <c r="J11" s="1">
-        <v>106447.5436</v>
+        <v>106101.8142</v>
       </c>
       <c r="K11" s="1">
-        <v>83104.32829999999</v>
+        <v>83443.594</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2382</v>
+        <v>13.2657</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5833.7722</v>
+        <v>-5857.3551</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0454</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>13.8711</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E12" s="1">
-        <v>6657.3111</v>
+        <v>6670.6405</v>
       </c>
       <c r="F12" s="1">
-        <v>1474.1036</v>
+        <v>1477.0447</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>92344.2273</v>
+        <v>92344.345</v>
       </c>
       <c r="I12" s="1">
-        <v>14167.2795</v>
+        <v>13798.1502</v>
       </c>
       <c r="J12" s="1">
-        <v>106511.5069</v>
+        <v>106142.4953</v>
       </c>
       <c r="K12" s="1">
-        <v>88938.1005</v>
+        <v>89300.9491</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3595</v>
+        <v>13.3872</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2824.9187</v>
+        <v>2830.5695</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-17622.5193</v>
+        <v>-17698.7269</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0853</v>
+        <v>-0.0858</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>14.1252</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E13" s="1">
-        <v>8131.4146</v>
+        <v>8147.6852</v>
       </c>
       <c r="F13" s="1">
-        <v>601.6032</v>
+        <v>602.8024</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114857.8579</v>
+        <v>114857.9184</v>
       </c>
       <c r="I13" s="1">
-        <v>6544.7602</v>
+        <v>6099.4234</v>
       </c>
       <c r="J13" s="1">
-        <v>121402.618</v>
+        <v>120957.3417</v>
       </c>
       <c r="K13" s="1">
-        <v>109385.5385</v>
+        <v>109830.2455</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4522</v>
+        <v>13.4799</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8497.7659</v>
+        <v>-8531.7637</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.042</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>14.1934</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E14" s="1">
-        <v>8733.0178</v>
+        <v>8750.4876</v>
       </c>
       <c r="F14" s="1">
-        <v>-8733.0178</v>
+        <v>-8750.4876</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123951.2155</v>
+        <v>123950.6569</v>
       </c>
       <c r="I14" s="1">
-        <v>8046.9943</v>
+        <v>7567.6597</v>
       </c>
       <c r="J14" s="1">
-        <v>131998.2099</v>
+        <v>131518.3166</v>
       </c>
       <c r="K14" s="1">
-        <v>117883.3044</v>
+        <v>118362.0092</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4986</v>
+        <v>13.5263</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123951.2155</v>
+        <v>123950.6569</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0045</v>
+        <v>0.0043</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>14.5668</v>
       </c>
       <c r="C2" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D2" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.962</v>
       </c>
       <c r="C3" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D3" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E3" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="F3" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9584.809300000001</v>
+        <v>9546.5196</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9584.809300000001</v>
+        <v>9546.5196</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0415</v>
+        <v>-0.0453</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.2659</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E4" s="1">
-        <v>1402.7223</v>
+        <v>1399.9155</v>
       </c>
       <c r="F4" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>17205.6519</v>
+        <v>17136.9255</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17205.6519</v>
+        <v>17136.9255</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.258</v>
+        <v>14.2866</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.1215</v>
+        <v>-0.1233</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>12.4103</v>
       </c>
       <c r="C5" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D5" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E5" s="1">
-        <v>2217.9907</v>
+        <v>2213.552</v>
       </c>
       <c r="F5" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>27525.9298</v>
+        <v>27415.9488</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27525.9298</v>
+        <v>27415.9488</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5258</v>
+        <v>13.5529</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0118</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>12.3976</v>
       </c>
       <c r="C6" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D6" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E6" s="1">
-        <v>3023.773</v>
+        <v>3017.7209</v>
       </c>
       <c r="F6" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>37487.5279</v>
+        <v>37337.6566</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37487.5279</v>
+        <v>37337.6566</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2285</v>
+        <v>13.255</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>998.0958000000001</v>
+        <v>996.0984</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9001.904200000001</v>
+        <v>-9003.901599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.001</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.9013</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E7" s="1">
-        <v>3830.3807</v>
+        <v>3822.7183</v>
       </c>
       <c r="F7" s="1">
-        <v>852.4731</v>
+        <v>850.6172</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49416.8906</v>
+        <v>49219.4092</v>
       </c>
       <c r="I7" s="1">
-        <v>998.0958000000001</v>
+        <v>996.0984</v>
       </c>
       <c r="J7" s="1">
-        <v>50414.9864</v>
+        <v>50215.5076</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0535</v>
+        <v>13.0797</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10998.0958</v>
+        <v>-10996.0984</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0616</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.3527</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E8" s="1">
-        <v>4682.8538</v>
+        <v>4673.3355</v>
       </c>
       <c r="F8" s="1">
-        <v>719.4508</v>
+        <v>739.7932</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>62528.7414</v>
+        <v>62276.8683</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>62528.7414</v>
+        <v>62276.8683</v>
       </c>
       <c r="K8" s="1">
-        <v>60998.0958</v>
+        <v>60996.0984</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0258</v>
+        <v>13.0519</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9606.610699999999</v>
+        <v>-9898.0627</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.035</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>13.8804</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E9" s="1">
-        <v>5402.3046</v>
+        <v>5413.1286</v>
       </c>
       <c r="F9" s="1">
-        <v>567.0267</v>
+        <v>568.1821</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>74986.1482</v>
+        <v>74985.9056</v>
       </c>
       <c r="I9" s="1">
-        <v>393.3893</v>
+        <v>101.9373</v>
       </c>
       <c r="J9" s="1">
-        <v>75379.53750000001</v>
+        <v>75087.8429</v>
       </c>
       <c r="K9" s="1">
-        <v>70604.7065</v>
+        <v>70894.1611</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0694</v>
+        <v>13.0967</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2107.2842</v>
+        <v>2103.001</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5763.2732</v>
+        <v>-5799.39</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0393</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>14.6268</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E10" s="1">
-        <v>5969.3313</v>
+        <v>5981.3108</v>
       </c>
       <c r="F10" s="1">
-        <v>435.711</v>
+        <v>436.5437</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>87312.2145</v>
+        <v>87312.7822</v>
       </c>
       <c r="I10" s="1">
-        <v>4630.1161</v>
+        <v>4302.5473</v>
       </c>
       <c r="J10" s="1">
-        <v>91942.3305</v>
+        <v>91615.32950000001</v>
       </c>
       <c r="K10" s="1">
-        <v>78475.26390000001</v>
+        <v>78796.5521</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1464</v>
+        <v>13.1738</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6373.0582</v>
+        <v>-6398.0283</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0769</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>15.3636</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E11" s="1">
-        <v>6405.0423</v>
+        <v>6417.8545</v>
       </c>
       <c r="F11" s="1">
-        <v>404.698</v>
+        <v>405.5204</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>98404.50780000001</v>
+        <v>98404.3211</v>
       </c>
       <c r="I11" s="1">
-        <v>8257.0579</v>
+        <v>7904.519</v>
       </c>
       <c r="J11" s="1">
-        <v>106661.5657</v>
+        <v>106308.8401</v>
       </c>
       <c r="K11" s="1">
-        <v>84848.3221</v>
+        <v>85194.58040000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2471</v>
+        <v>13.2746</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6217.6176</v>
+        <v>-6242.7438</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0463</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>13.8711</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E12" s="1">
-        <v>6809.7403</v>
+        <v>6823.3749</v>
       </c>
       <c r="F12" s="1">
-        <v>1529.061</v>
+        <v>1532.1119</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>94458.58809999999</v>
+        <v>94458.70849999999</v>
       </c>
       <c r="I12" s="1">
-        <v>12039.4403</v>
+        <v>11661.7752</v>
       </c>
       <c r="J12" s="1">
-        <v>106498.0284</v>
+        <v>106120.4836</v>
       </c>
       <c r="K12" s="1">
-        <v>91065.9397</v>
+        <v>91437.3242</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3729</v>
+        <v>13.4006</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2882.269</v>
+        <v>2888.0345</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-18327.4896</v>
+        <v>-18406.6359</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0871</v>
+        <v>-0.0876</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>14.1252</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E13" s="1">
-        <v>8338.801299999999</v>
+        <v>8355.4869</v>
       </c>
       <c r="F13" s="1">
-        <v>639.8348</v>
+        <v>641.1103000000001</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>117787.2361</v>
+        <v>117787.2981</v>
       </c>
       <c r="I13" s="1">
-        <v>3711.9507</v>
+        <v>3255.1393</v>
       </c>
       <c r="J13" s="1">
-        <v>121499.1868</v>
+        <v>121042.4374</v>
       </c>
       <c r="K13" s="1">
-        <v>112275.6983</v>
+        <v>112731.9946</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4642</v>
+        <v>13.492</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9037.794099999999</v>
+        <v>-9073.9547</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0429</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>14.1934</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E14" s="1">
-        <v>8978.6361</v>
+        <v>8996.5972</v>
       </c>
       <c r="F14" s="1">
-        <v>-8978.6361</v>
+        <v>-8996.5972</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127437.3731</v>
+        <v>127436.7987</v>
       </c>
       <c r="I14" s="1">
-        <v>4674.1567</v>
+        <v>4181.1845</v>
       </c>
       <c r="J14" s="1">
-        <v>132111.5298</v>
+        <v>131617.9833</v>
       </c>
       <c r="K14" s="1">
-        <v>121313.4923</v>
+        <v>121805.9494</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5113</v>
+        <v>13.5391</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127437.3731</v>
+        <v>127436.7987</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0047</v>
+        <v>0.0044</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>14.5668</v>
       </c>
       <c r="C2" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D2" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.962</v>
       </c>
       <c r="C3" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D3" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E3" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="F3" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9584.809300000001</v>
+        <v>9546.5196</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9584.809300000001</v>
+        <v>9546.5196</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0415</v>
+        <v>-0.0453</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.2659</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E4" s="1">
-        <v>1402.7223</v>
+        <v>1399.9155</v>
       </c>
       <c r="F4" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>17205.6519</v>
+        <v>17136.9255</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17205.6519</v>
+        <v>17136.9255</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.258</v>
+        <v>14.2866</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.1215</v>
+        <v>-0.1233</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>12.4103</v>
       </c>
       <c r="C5" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D5" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E5" s="1">
-        <v>2217.9907</v>
+        <v>2213.552</v>
       </c>
       <c r="F5" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>27525.9298</v>
+        <v>27415.9488</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27525.9298</v>
+        <v>27415.9488</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5258</v>
+        <v>13.5529</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0118</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>12.3976</v>
       </c>
       <c r="C6" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D6" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E6" s="1">
-        <v>3023.773</v>
+        <v>3017.7209</v>
       </c>
       <c r="F6" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>37487.5279</v>
+        <v>37337.6566</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37487.5279</v>
+        <v>37337.6566</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2285</v>
+        <v>13.255</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>998.0958000000001</v>
+        <v>996.0984</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9001.904200000001</v>
+        <v>-9003.901599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.001</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.9013</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E7" s="1">
-        <v>3830.3807</v>
+        <v>3822.7183</v>
       </c>
       <c r="F7" s="1">
-        <v>852.4731</v>
+        <v>850.6172</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49416.8906</v>
+        <v>49219.4092</v>
       </c>
       <c r="I7" s="1">
-        <v>998.0958000000001</v>
+        <v>996.0984</v>
       </c>
       <c r="J7" s="1">
-        <v>50414.9864</v>
+        <v>50215.5076</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0535</v>
+        <v>13.0797</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10998.0958</v>
+        <v>-10996.0984</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0616</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.3527</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E8" s="1">
-        <v>4682.8538</v>
+        <v>4673.3355</v>
       </c>
       <c r="F8" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62528.7414</v>
+        <v>62276.8683</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>62528.7414</v>
+        <v>62276.8683</v>
       </c>
       <c r="K8" s="1">
-        <v>60998.0958</v>
+        <v>60996.0984</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0258</v>
+        <v>13.0519</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.035</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>13.8804</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E9" s="1">
-        <v>5431.766</v>
+        <v>5420.7475</v>
       </c>
       <c r="F9" s="1">
-        <v>643.5915</v>
+        <v>666.8022</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>75395.0843</v>
+        <v>75091.4474</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>75395.0843</v>
+        <v>75091.4474</v>
       </c>
       <c r="K9" s="1">
-        <v>70998.0958</v>
+        <v>70996.0984</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0709</v>
+        <v>13.0971</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2107.2842</v>
+        <v>2103.001</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6826.0226</v>
+        <v>-7171.0169</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0395</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>14.6268</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E10" s="1">
-        <v>6075.3574</v>
+        <v>6087.5497</v>
       </c>
       <c r="F10" s="1">
-        <v>460.1334</v>
+        <v>461.0142</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>88863.03780000001</v>
+        <v>88863.6156</v>
       </c>
       <c r="I10" s="1">
-        <v>3173.9774</v>
+        <v>2828.9831</v>
       </c>
       <c r="J10" s="1">
-        <v>92037.01519999999</v>
+        <v>91692.5987</v>
       </c>
       <c r="K10" s="1">
-        <v>79931.4026</v>
+        <v>80270.11629999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1567</v>
+        <v>13.1859</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6730.2791</v>
+        <v>-6756.6707</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07779999999999999</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>15.3636</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E11" s="1">
-        <v>6535.4908</v>
+        <v>6548.5639</v>
       </c>
       <c r="F11" s="1">
-        <v>430.7942</v>
+        <v>431.6692</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>100408.6666</v>
+        <v>100408.476</v>
       </c>
       <c r="I11" s="1">
-        <v>6443.6983</v>
+        <v>6072.3125</v>
       </c>
       <c r="J11" s="1">
-        <v>106852.3649</v>
+        <v>106480.7884</v>
       </c>
       <c r="K11" s="1">
-        <v>86661.6817</v>
+        <v>87026.78690000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2602</v>
+        <v>13.2894</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6618.5501</v>
+        <v>-6645.2883</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0472</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>13.8711</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E12" s="1">
-        <v>6966.285</v>
+        <v>6980.2331</v>
       </c>
       <c r="F12" s="1">
-        <v>1429.2412</v>
+        <v>1397.7382</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>96630.03630000001</v>
+        <v>96630.1594</v>
       </c>
       <c r="I12" s="1">
-        <v>9825.1482</v>
+        <v>9427.024100000001</v>
       </c>
       <c r="J12" s="1">
-        <v>106455.1845</v>
+        <v>106057.1835</v>
       </c>
       <c r="K12" s="1">
-        <v>93280.23179999999</v>
+        <v>93672.0753</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3902</v>
+        <v>13.4196</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2940.9709</v>
+        <v>2946.8538</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-16884.1773</v>
+        <v>-16480.1703</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.089</v>
+        <v>-0.0895</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>14.1252</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E13" s="1">
-        <v>8395.5263</v>
+        <v>8377.9714</v>
       </c>
       <c r="F13" s="1">
-        <v>837.0590999999999</v>
+        <v>873.083</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>118588.4877</v>
+        <v>118104.2626</v>
       </c>
       <c r="I13" s="1">
-        <v>2940.9709</v>
+        <v>2946.8538</v>
       </c>
       <c r="J13" s="1">
-        <v>121529.4586</v>
+        <v>121051.1164</v>
       </c>
       <c r="K13" s="1">
-        <v>113105.38</v>
+        <v>113099.0994</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4721</v>
+        <v>13.4996</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11823.6266</v>
+        <v>-12357.1809</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0436</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>14.1934</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E14" s="1">
-        <v>9232.585300000001</v>
+        <v>9251.054400000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9232.585300000001</v>
+        <v>-9251.054400000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>131041.7766</v>
+        <v>131041.186</v>
       </c>
       <c r="I14" s="1">
-        <v>1117.3442</v>
+        <v>589.6729</v>
       </c>
       <c r="J14" s="1">
-        <v>132159.1209</v>
+        <v>131630.8589</v>
       </c>
       <c r="K14" s="1">
-        <v>124929.0066</v>
+        <v>125456.2803</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5313</v>
+        <v>13.5613</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131041.7766</v>
+        <v>131041.186</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0048</v>
+        <v>0.0044</v>
       </c>
     </row>
   </sheetData>
@@ -4451,9 +4451,9 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.6071</v>
+        <v>13.6344</v>
       </c>
       <c r="D3" s="1">
-        <v>13.4874</v>
+        <v>13.5141</v>
       </c>
       <c r="E3" s="1">
-        <v>13.4986</v>
+        <v>13.5263</v>
       </c>
       <c r="F3" s="1">
-        <v>13.5113</v>
+        <v>13.5391</v>
       </c>
       <c r="G3" s="1">
-        <v>13.5313</v>
+        <v>13.5613</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.007</v>
       </c>
       <c r="C4" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0514</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0638</v>
+        <v>0.0525</v>
       </c>
       <c r="E4" s="3">
-        <v>0.06569999999999999</v>
+        <v>0.0541</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0673</v>
+        <v>0.0556</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0683</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1905</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2063</v>
+        <v>0.2077</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1976</v>
+        <v>0.1994</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1992</v>
+        <v>0.2009</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2008</v>
+        <v>0.2025</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2023</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.1433</v>
       </c>
       <c r="C6" s="4">
-        <v>0.2105</v>
+        <v>0.1498</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2198</v>
+        <v>0.1614</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2278</v>
+        <v>0.1681</v>
       </c>
       <c r="F6" s="4">
-        <v>0.234</v>
+        <v>0.1741</v>
       </c>
       <c r="G6" s="4">
-        <v>0.2369</v>
+        <v>0.1757</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1859</v>
+        <v>0.1771</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2029</v>
+        <v>0.1944</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2019</v>
+        <v>0.193</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2004</v>
+        <v>0.1914</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1985</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6151.6399</v>
+        <v>6139.2571</v>
       </c>
       <c r="D8" s="1">
-        <v>5859.7981</v>
+        <v>5867.533</v>
       </c>
       <c r="E8" s="1">
-        <v>5930.2987</v>
+        <v>5929.6689</v>
       </c>
       <c r="F8" s="1">
-        <v>5987.649</v>
+        <v>5987.1339</v>
       </c>
       <c r="G8" s="1">
-        <v>6046.3509</v>
+        <v>6045.9531</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P29_KFSDIV.xlsx
+++ b/output/1Y_P29_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7282.2855</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0386</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1522</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1215</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0911</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0605</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
